--- a/input_data/subreddit-NBC_TV.xlsx
+++ b/input_data/subreddit-NBC_TV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>Text</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,9 +486,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1527840343</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,9 +513,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1527926745</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,9 +540,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1528013148</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -581,9 +567,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1528099569</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,9 +594,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1528185937</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -641,9 +621,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1528272346</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -671,9 +648,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1528358747</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -701,9 +675,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1528445146</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -731,9 +702,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1528531546</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -761,9 +729,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1528617941</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -791,9 +756,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1528704355</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -821,9 +783,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1528790732</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -851,9 +810,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1528877140</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -881,9 +837,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1528963539</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -911,9 +864,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1529049952</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -941,9 +891,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>1529136339</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -971,9 +918,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>1529222742</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1001,9 +945,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1529309164</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1031,9 +972,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>1529395532</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1061,9 +999,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1529481943</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1091,9 +1026,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>1529568345</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1121,9 +1053,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1529654748</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1151,9 +1080,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1529741138</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1181,9 +1107,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1529827542</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1211,9 +1134,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>1529913956</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1241,9 +1161,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1530000476</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1271,9 +1188,6 @@
           <t>[removed]</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>1530000509</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1301,9 +1215,6 @@
           <t>ask again later</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>1530000518</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1331,9 +1242,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1530086742</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1361,9 +1269,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1530173148</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1391,9 +1296,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1530259549</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1421,9 +1323,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>1530345942</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1451,9 +1350,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1517472346</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1481,9 +1377,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1517558770</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1511,9 +1404,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1517645150</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1541,9 +1431,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1517731547</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1571,9 +1458,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>1517817991</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1601,9 +1485,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>1517904358</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1631,9 +1512,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>1517990744</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1661,9 +1539,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>1518077145</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1691,9 +1566,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>1518163569</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1721,9 +1593,6 @@
           <t>pistons &lt;number&gt; &lt;number&gt;/&lt;number&gt; celtics &lt;number&gt; timberwolves &lt;number&gt; jazz &lt;number&gt; &lt;number&gt;/&lt;number&gt; trailblazers &lt;number&gt; &lt;number&gt;/&lt;number&gt; risk &lt;number&gt;</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>1518186046</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1751,9 +1620,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>1518249947</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1781,9 +1647,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>1518336348</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1811,9 +1674,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>1518422789</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1841,9 +1701,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>1518509139</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1871,9 +1728,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>1518595557</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1901,9 +1755,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>1518681944</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1931,9 +1782,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1518768369</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1961,9 +1809,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>1518854745</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1991,9 +1836,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>1518941147</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2021,9 +1863,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>1519027579</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2051,9 +1890,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>1519113938</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2081,9 +1917,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>1519200345</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2111,9 +1944,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>1519286750</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2141,9 +1971,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>1519373170</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2171,9 +1998,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1519459548</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2201,9 +2025,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>1519545963</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2231,9 +2052,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>1519632381</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2261,9 +2079,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>1519718737</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2291,9 +2106,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>1519805148</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2321,9 +2133,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>1533110738</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2351,9 +2160,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>1533197146</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2381,9 +2187,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>1533283544</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2411,9 +2214,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>1533369937</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2441,9 +2241,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>1533456340</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2471,9 +2268,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>1533542754</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2501,9 +2295,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>1533629131</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2531,9 +2322,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>1533715538</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2561,9 +2349,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>1533801945</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2591,9 +2376,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>1533888338</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2621,9 +2403,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1533974737</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2651,9 +2430,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>1534061141</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2681,9 +2457,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>1534147556</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2711,9 +2484,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>1534233931</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2741,9 +2511,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>1534320338</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2771,9 +2538,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>1534406738</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2801,9 +2565,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>1534493137</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2831,9 +2592,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>1534579537</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2861,9 +2619,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>1534665941</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2891,9 +2646,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>1534752369</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2921,9 +2673,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>1534838731</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2951,9 +2700,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>1534925137</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2981,9 +2727,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>1535011538</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3011,9 +2754,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>1535097937</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3041,9 +2781,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>1535184337</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3071,9 +2808,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>1535270742</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3101,9 +2835,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>1535357155</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3131,9 +2862,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>1535443531</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3161,9 +2889,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>1535529938</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3191,9 +2916,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>1535616346</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3221,9 +2943,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>1535702744</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3251,9 +2970,6 @@
           <t>[removed]</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>1514869563</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3277,9 +2993,6 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="n">
-        <v>1514883573</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3307,9 +3020,6 @@
           <t>houston rockets star guard james harden will be sidelined at least two weeks due to a grade &lt;number&gt; hamstring strain, the team announced monday night. [source](&lt;url&gt;)</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>1514884528</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3333,9 +3043,6 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="n">
-        <v>1514931819</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3359,9 +3066,6 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="n">
-        <v>1514931874</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3389,9 +3093,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>1514966744</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3419,9 +3120,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>1514977998</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3449,9 +3147,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>1515024962</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3475,9 +3170,6 @@
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="n">
-        <v>1515025644</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3501,9 +3193,6 @@
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>1515034795</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3527,9 +3216,6 @@
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="n">
-        <v>1515035545</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3553,9 +3239,6 @@
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>1515046568</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3583,9 +3266,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>1515053154</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3609,9 +3289,6 @@
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>1515060834</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3635,9 +3312,6 @@
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="n">
-        <v>1515061724</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3661,9 +3335,6 @@
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="n">
-        <v>1515062327</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3687,9 +3358,6 @@
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="n">
-        <v>1515062929</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3713,9 +3381,6 @@
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="n">
-        <v>1515063533</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3739,9 +3404,6 @@
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
-        <v>1515064134</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3765,9 +3427,6 @@
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
-        <v>1515066145</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3791,9 +3450,6 @@
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="n">
-        <v>1515066799</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3817,9 +3473,6 @@
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="n">
-        <v>1515067401</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3843,9 +3496,6 @@
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="n">
-        <v>1515068003</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3873,9 +3523,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>1515139572</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3903,9 +3550,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F118" t="n">
-        <v>1515225944</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3933,9 +3577,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>1515312348</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3963,9 +3604,6 @@
           <t>atlanta hawks v **la lakers** ml funnily, they are both playing to see who has the worst record in the league.</t>
         </is>
       </c>
-      <c r="F120" t="n">
-        <v>1515322570</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3993,9 +3631,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>1515398778</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4023,9 +3658,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F122" t="n">
-        <v>1515485150</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4053,9 +3685,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>1515571544</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4083,9 +3712,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>1515657945</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4113,9 +3739,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>1515744378</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4143,9 +3766,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>1515830744</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4173,9 +3793,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>1515917147</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4203,9 +3820,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F128" t="n">
-        <v>1516003577</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4233,9 +3847,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>1516089945</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4263,9 +3874,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>1516176343</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4293,9 +3901,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>1516262747</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4323,9 +3928,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F132" t="n">
-        <v>1516349172</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4353,9 +3955,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>1516435552</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4383,9 +3982,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F134" t="n">
-        <v>1516521947</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4413,9 +4009,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>1516608380</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4443,9 +4036,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F136" t="n">
-        <v>1516694763</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4473,9 +4063,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>1516781151</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4503,9 +4090,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>1516867544</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4533,9 +4117,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F139" t="n">
-        <v>1516953968</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4563,9 +4144,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>1517040344</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4593,9 +4171,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>1517126746</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4623,9 +4198,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F142" t="n">
-        <v>1517213188</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4653,9 +4225,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>1517299538</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4683,9 +4252,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>1517385943</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4713,9 +4279,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>1522569975</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4743,9 +4306,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>1522656364</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4773,9 +4333,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F147" t="n">
-        <v>1522742738</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4803,9 +4360,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F148" t="n">
-        <v>1522829145</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4833,9 +4387,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>1522915545</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4863,9 +4414,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>1523001953</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4893,9 +4441,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>1523088346</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4923,9 +4468,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>1523174749</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4953,9 +4495,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>1523261165</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4983,9 +4522,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F154" t="n">
-        <v>1523347546</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5013,9 +4549,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>1523433945</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5043,9 +4576,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F156" t="n">
-        <v>1523520349</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5073,9 +4603,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>1523606768</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5103,9 +4630,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F158" t="n">
-        <v>1523693152</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5133,9 +4657,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>1523779548</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5163,9 +4684,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F160" t="n">
-        <v>1523865965</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5193,9 +4711,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F161" t="n">
-        <v>1523952338</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5223,9 +4738,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F162" t="n">
-        <v>1524038753</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5253,9 +4765,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F163" t="n">
-        <v>1524125149</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5283,9 +4792,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F164" t="n">
-        <v>1524211548</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5313,9 +4819,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F165" t="n">
-        <v>1524297952</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5343,9 +4846,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F166" t="n">
-        <v>1524384355</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5373,9 +4873,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F167" t="n">
-        <v>1524470763</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5403,9 +4900,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F168" t="n">
-        <v>1524557138</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5433,9 +4927,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>1524643552</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5463,9 +4954,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F170" t="n">
-        <v>1524729945</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5493,9 +4981,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F171" t="n">
-        <v>1524816357</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5523,9 +5008,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>1524902751</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5553,9 +5035,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F173" t="n">
-        <v>1524989152</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5583,9 +5062,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>1525075576</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5613,9 +5089,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F175" t="n">
-        <v>1538381156</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5643,9 +5116,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F176" t="n">
-        <v>1538467531</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5673,9 +5143,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F177" t="n">
-        <v>1538553951</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5703,9 +5170,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F178" t="n">
-        <v>1538640338</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5733,9 +5197,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F179" t="n">
-        <v>1538726738</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5763,9 +5224,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F180" t="n">
-        <v>1538813136</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5793,9 +5251,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F181" t="n">
-        <v>1538899540</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5823,9 +5278,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>1538985955</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5853,9 +5305,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F183" t="n">
-        <v>1539072271</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5883,9 +5332,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F184" t="n">
-        <v>1539158679</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5913,9 +5359,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F185" t="n">
-        <v>1539245079</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5943,9 +5386,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F186" t="n">
-        <v>1539331478</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5973,9 +5413,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F187" t="n">
-        <v>1539417877</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6003,9 +5440,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F188" t="n">
-        <v>1539504287</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6033,9 +5467,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F189" t="n">
-        <v>1539590695</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6063,9 +5494,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F190" t="n">
-        <v>1539677071</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6093,9 +5521,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F191" t="n">
-        <v>1539763486</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6123,9 +5548,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F192" t="n">
-        <v>1539849879</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6153,9 +5575,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F193" t="n">
-        <v>1539936278</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6183,9 +5602,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F194" t="n">
-        <v>1540022678</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6213,9 +5629,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F195" t="n">
-        <v>1540109081</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6243,9 +5656,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F196" t="n">
-        <v>1540195496</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6273,9 +5683,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F197" t="n">
-        <v>1540281881</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6303,9 +5710,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F198" t="n">
-        <v>1540454687</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6333,9 +5737,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F199" t="n">
-        <v>1540541079</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6363,9 +5764,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F200" t="n">
-        <v>1540627478</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6393,9 +5791,6 @@
           <t>great nba picks at [&lt;url&gt;](&lt;url&gt;) i like portland at miami por &lt;number&gt;</t>
         </is>
       </c>
-      <c r="F201" t="n">
-        <v>1540666284</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6423,9 +5818,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F202" t="n">
-        <v>1540713881</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6453,9 +5845,6 @@
           <t>i ike jazz &lt;number&gt; and jazz money line. wizards could definitely pull off the "upset". great daily nba bets [&lt;url&gt;](&lt;url&gt;)</t>
         </is>
       </c>
-      <c r="F203" t="n">
-        <v>1540760514</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6483,9 +5872,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F204" t="n">
-        <v>1540800295</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6513,9 +5899,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F205" t="n">
-        <v>1540886672</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6543,9 +5926,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F206" t="n">
-        <v>1540973079</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6573,9 +5953,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F207" t="n">
-        <v>1519891552</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6603,9 +5980,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F208" t="n">
-        <v>1519977969</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6633,9 +6007,6 @@
           <t>pistons: &lt;number&gt; magic: &lt;number&gt;</t>
         </is>
       </c>
-      <c r="F209" t="n">
-        <v>1520035136</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6663,9 +6034,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F210" t="n">
-        <v>1520064349</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6693,9 +6061,6 @@
           <t>this sub is dead</t>
         </is>
       </c>
-      <c r="F211" t="n">
-        <v>1520065139</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6723,9 +6088,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F212" t="n">
-        <v>1520150749</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6753,9 +6115,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F213" t="n">
-        <v>1520237181</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6783,9 +6142,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F214" t="n">
-        <v>1520323543</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6813,9 +6169,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F215" t="n">
-        <v>1520409945</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6843,9 +6196,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F216" t="n">
-        <v>1520496351</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6873,9 +6223,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F217" t="n">
-        <v>1520582770</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6903,9 +6250,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F218" t="n">
-        <v>1520669152</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6933,9 +6277,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F219" t="n">
-        <v>1520755549</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6963,9 +6304,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F220" t="n">
-        <v>1520841964</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6993,9 +6331,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F221" t="n">
-        <v>1520928344</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7023,9 +6358,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F222" t="n">
-        <v>1521014745</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7053,9 +6385,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F223" t="n">
-        <v>1521101147</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7083,9 +6412,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F224" t="n">
-        <v>1521187551</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7113,9 +6439,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F225" t="n">
-        <v>1521273945</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7143,9 +6466,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F226" t="n">
-        <v>1521360349</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7173,9 +6493,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F227" t="n">
-        <v>1521446776</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7203,9 +6520,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F228" t="n">
-        <v>1521533140</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7233,9 +6547,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F229" t="n">
-        <v>1521619553</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7263,9 +6574,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F230" t="n">
-        <v>1521705947</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7293,9 +6601,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F231" t="n">
-        <v>1521792348</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7323,9 +6628,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F232" t="n">
-        <v>1521878745</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7353,9 +6655,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F233" t="n">
-        <v>1521965150</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7383,9 +6682,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F234" t="n">
-        <v>1522051573</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7413,9 +6709,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F235" t="n">
-        <v>1522137939</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7443,9 +6736,6 @@
           <t>i am from scotland, i enjoy watching basketball but only if i'm betting on it. i have no clue of where anybody is in the league or how good/bad they are but the other day i bet on the celtics to beat the trail blazers and got crazy odds and they won. i'm guessing no one excepted that?</t>
         </is>
       </c>
-      <c r="F236" t="n">
-        <v>1522201660</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7473,9 +6763,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F237" t="n">
-        <v>1522224345</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7503,9 +6790,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F238" t="n">
-        <v>1522310746</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7533,9 +6817,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F239" t="n">
-        <v>1522397156</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7563,9 +6844,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F240" t="n">
-        <v>1522483545</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7593,9 +6871,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F241" t="n">
-        <v>1525161945</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7623,9 +6898,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F242" t="n">
-        <v>1525248358</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7653,9 +6925,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F243" t="n">
-        <v>1525334751</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7683,9 +6952,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F244" t="n">
-        <v>1525421161</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7713,9 +6979,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F245" t="n">
-        <v>1525507553</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7743,9 +7006,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F246" t="n">
-        <v>1525593951</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7773,9 +7033,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F247" t="n">
-        <v>1525680368</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7803,9 +7060,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F248" t="n">
-        <v>1525766742</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7833,9 +7087,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F249" t="n">
-        <v>1525853151</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7863,9 +7114,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F250" t="n">
-        <v>1525939552</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7893,9 +7141,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F251" t="n">
-        <v>1526025955</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7923,9 +7168,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F252" t="n">
-        <v>1526112356</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7953,9 +7195,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F253" t="n">
-        <v>1526198759</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7983,9 +7222,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F254" t="n">
-        <v>1526285169</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8013,9 +7249,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F255" t="n">
-        <v>1526371542</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8043,9 +7276,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F256" t="n">
-        <v>1526457951</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8073,9 +7303,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F257" t="n">
-        <v>1526544349</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8103,9 +7330,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F258" t="n">
-        <v>1526630753</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8133,9 +7357,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F259" t="n">
-        <v>1526717149</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8163,9 +7384,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F260" t="n">
-        <v>1526803565</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8193,9 +7411,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F261" t="n">
-        <v>1526889968</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8223,9 +7438,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F262" t="n">
-        <v>1526976342</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8253,9 +7465,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F263" t="n">
-        <v>1527062748</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8283,9 +7492,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F264" t="n">
-        <v>1527149150</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8313,9 +7519,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F265" t="n">
-        <v>1527235544</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8343,9 +7546,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F266" t="n">
-        <v>1527321943</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8373,9 +7573,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F267" t="n">
-        <v>1527408349</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8403,9 +7600,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F268" t="n">
-        <v>1527494763</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8433,9 +7627,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F269" t="n">
-        <v>1527581138</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8463,9 +7654,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F270" t="n">
-        <v>1527667553</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8493,9 +7681,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F271" t="n">
-        <v>1527753951</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8523,9 +7708,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F272" t="n">
-        <v>1535789137</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8553,9 +7735,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F273" t="n">
-        <v>1535875541</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8583,9 +7762,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F274" t="n">
-        <v>1535961963</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8613,9 +7789,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F275" t="n">
-        <v>1536048337</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8643,9 +7816,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F276" t="n">
-        <v>1536134739</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8673,9 +7843,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F277" t="n">
-        <v>1536221138</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8703,9 +7870,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F278" t="n">
-        <v>1536307538</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8733,9 +7897,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F279" t="n">
-        <v>1536393938</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8763,9 +7924,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F280" t="n">
-        <v>1536480341</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8793,9 +7951,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F281" t="n">
-        <v>1536566756</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8823,9 +7978,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F282" t="n">
-        <v>1536653138</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8853,9 +8005,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F283" t="n">
-        <v>1536739538</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8883,9 +8032,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F284" t="n">
-        <v>1536825939</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8913,9 +8059,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F285" t="n">
-        <v>1536912346</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8943,9 +8086,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F286" t="n">
-        <v>1536998744</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8973,9 +8113,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F287" t="n">
-        <v>1537085156</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9003,9 +8140,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F288" t="n">
-        <v>1537171562</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9033,9 +8167,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F289" t="n">
-        <v>1537257931</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9063,9 +8194,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F290" t="n">
-        <v>1537344338</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9093,9 +8221,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F291" t="n">
-        <v>1537430739</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9123,9 +8248,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F292" t="n">
-        <v>1537517138</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9153,9 +8275,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F293" t="n">
-        <v>1537603552</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9183,9 +8302,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F294" t="n">
-        <v>1537689942</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9213,9 +8329,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F295" t="n">
-        <v>1537776355</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9243,9 +8356,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F296" t="n">
-        <v>1537862731</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9273,9 +8383,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F297" t="n">
-        <v>1537949138</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9303,9 +8410,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F298" t="n">
-        <v>1538035538</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9329,9 +8433,6 @@
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
-      <c r="F299" t="n">
-        <v>1538099945</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9359,9 +8460,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F300" t="n">
-        <v>1538121937</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9389,9 +8487,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F301" t="n">
-        <v>1538208337</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9419,9 +8514,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F302" t="n">
-        <v>1538294749</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9449,9 +8541,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F303" t="n">
-        <v>1530432346</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9479,9 +8568,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F304" t="n">
-        <v>1530518760</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9509,9 +8595,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F305" t="n">
-        <v>1530605144</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9539,9 +8622,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F306" t="n">
-        <v>1530691551</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9569,9 +8649,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F307" t="n">
-        <v>1530777943</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9599,9 +8676,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F308" t="n">
-        <v>1530864342</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9629,9 +8703,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F309" t="n">
-        <v>1530950762</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9659,9 +8730,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F310" t="n">
-        <v>1531037638</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9689,9 +8757,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F311" t="n">
-        <v>1531037780</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9719,9 +8784,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F312" t="n">
-        <v>1531123561</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9749,9 +8811,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F313" t="n">
-        <v>1531209944</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9779,9 +8838,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F314" t="n">
-        <v>1531296591</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9809,9 +8865,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F315" t="n">
-        <v>1531296670</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9839,9 +8892,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F316" t="n">
-        <v>1531382750</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9869,9 +8919,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F317" t="n">
-        <v>1531469150</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9899,9 +8946,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F318" t="n">
-        <v>1531555542</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9929,9 +8973,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F319" t="n">
-        <v>1531641946</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9959,9 +9000,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F320" t="n">
-        <v>1531728368</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9989,9 +9027,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F321" t="n">
-        <v>1531814744</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10019,9 +9054,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F322" t="n">
-        <v>1531901149</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10049,9 +9081,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F323" t="n">
-        <v>1531987559</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10079,9 +9108,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F324" t="n">
-        <v>1532073948</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10109,9 +9135,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F325" t="n">
-        <v>1532160337</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10139,9 +9162,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F326" t="n">
-        <v>1532246750</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10169,9 +9189,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F327" t="n">
-        <v>1532333157</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10199,9 +9216,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F328" t="n">
-        <v>1532505948</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10229,9 +9243,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F329" t="n">
-        <v>1532592349</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10259,9 +9270,6 @@
           <t>testing testing. anybody alive in here? &lt;number&gt;-&lt;number&gt; is going to be a great year</t>
         </is>
       </c>
-      <c r="F330" t="n">
-        <v>1532628190</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10289,9 +9297,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F331" t="n">
-        <v>1532678742</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10319,9 +9324,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F332" t="n">
-        <v>1532765148</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10349,9 +9351,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F333" t="n">
-        <v>1532851550</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10379,9 +9378,6 @@
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
-      <c r="F334" t="n">
-        <v>1532937957</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10408,9 +9404,6 @@
         <is>
           <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
-      </c>
-      <c r="F335" t="n">
-        <v>1533024332</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/subreddit-NBC_TV.xlsx
+++ b/input_data/subreddit-NBC_TV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Conversation ID</t>
+          <t>conv_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Utterance ID</t>
+          <t>res_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Speaker ID</t>
+          <t>question_text</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Reply to</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Text</t>
+          <t>answer_text</t>
         </is>
       </c>
     </row>
@@ -466,24 +461,17 @@
           <t>8nq7go</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>8nq7go</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -493,24 +481,17 @@
           <t>8nz652</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8nz652</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -520,24 +501,17 @@
           <t>8o76qn</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8o76qn</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -547,24 +521,17 @@
           <t>8oflr0</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8oflr0</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -574,24 +541,17 @@
           <t>8op2hj</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>8op2hj</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -601,24 +561,17 @@
           <t>8oyv8y</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8oyv8y</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -628,24 +581,17 @@
           <t>8p8jl2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8p8jl2</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -655,24 +601,17 @@
           <t>8pi5gh</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8pi5gh</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -682,24 +621,17 @@
           <t>8prde2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8prde2</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -709,24 +641,17 @@
           <t>8pzgbl</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8pzgbl</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -736,24 +661,17 @@
           <t>8q7tmj</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8q7tmj</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -763,24 +681,17 @@
           <t>8qh7s2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>8qh7s2</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -790,24 +701,17 @@
           <t>8qqpgh</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>8qqpgh</t>
-        </is>
+      <c r="B14" t="n">
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -817,24 +721,17 @@
           <t>8r03u9</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>8r03u9</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -844,24 +741,17 @@
           <t>8r9a46</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>8r9a46</t>
-        </is>
+      <c r="B16" t="n">
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -871,24 +761,17 @@
           <t>8ri0os</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8ri0os</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -898,24 +781,17 @@
           <t>8rpoxf</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>8rpoxf</t>
-        </is>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -925,24 +801,17 @@
           <t>8rxtcm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>8rxtcm</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -952,24 +821,17 @@
           <t>8s7586</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>8s7586</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -979,24 +841,17 @@
           <t>8sgksm</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>8sgksm</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1006,24 +861,17 @@
           <t>8sq3hu</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>8sq3hu</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1033,24 +881,17 @@
           <t>8szmc5</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>8szmc5</t>
-        </is>
+      <c r="B23" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1060,24 +901,17 @@
           <t>8t8ixj</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>8t8ixj</t>
-        </is>
+      <c r="B24" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1087,24 +921,17 @@
           <t>8tgft4</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8tgft4</t>
-        </is>
+      <c r="B25" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1114,24 +941,17 @@
           <t>8tose6</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>8tose6</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1141,24 +961,17 @@
           <t>8tya44</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>8tya44</t>
-        </is>
+      <c r="B27" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1168,24 +981,17 @@
           <t>8tya44</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>e1b4u7x</t>
-        </is>
+      <c r="B28" t="n">
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[deleted]</t>
+          <t>[removed]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8tya44</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[removed]</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1195,24 +1001,17 @@
           <t>8tya44</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>e1b4ud3</t>
-        </is>
+      <c r="B29" t="n">
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>not_so_magic_8_ball</t>
+          <t>Ask again Later</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>e1b4u7x</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ask again later</t>
+          <t>[removed]</t>
         </is>
       </c>
     </row>
@@ -1222,24 +1021,17 @@
           <t>8u7tkm</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8u7tkm</t>
-        </is>
+      <c r="B30" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1249,24 +1041,17 @@
           <t>8uhbpy</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>8uhbpy</t>
-        </is>
+      <c r="B31" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1276,24 +1061,17 @@
           <t>8urfvs</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>8urfvs</t>
-        </is>
+      <c r="B32" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1303,24 +1081,17 @@
           <t>8v0fhn</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>8v0fhn</t>
-        </is>
+      <c r="B33" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1330,24 +1101,17 @@
           <t>7uha2c</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>7uha2c</t>
-        </is>
+      <c r="B34" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1357,24 +1121,17 @@
           <t>7upvpf</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>7upvpf</t>
-        </is>
+      <c r="B35" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1384,24 +1141,17 @@
           <t>7uy4u4</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>7uy4u4</t>
-        </is>
+      <c r="B36" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1411,24 +1161,17 @@
           <t>7v5kop</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>7v5kop</t>
-        </is>
+      <c r="B37" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1438,24 +1181,17 @@
           <t>7vdcyf</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>7vdcyf</t>
-        </is>
+      <c r="B38" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1465,24 +1201,17 @@
           <t>7vlwhp</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>7vlwhp</t>
-        </is>
+      <c r="B39" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1492,24 +1221,17 @@
           <t>7vumcs</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>7vumcs</t>
-        </is>
+      <c r="B40" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1519,24 +1241,17 @@
           <t>7w3c7b</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>7w3c7b</t>
-        </is>
+      <c r="B41" t="n">
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1546,24 +1261,17 @@
           <t>7wc0ti</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>7wc0ti</t>
-        </is>
+      <c r="B42" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1573,24 +1281,17 @@
           <t>7wc0ti</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>dtzh5wx</t>
-        </is>
+      <c r="B43" t="n">
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A_PacNigga90</t>
+          <t>Pistons -3½ Celtics -4 Timberwolves -7Jazz -5½ Trailblazers -5½ Risk 10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7wc0ti</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>pistons &lt;number&gt; &lt;number&gt;/&lt;number&gt; celtics &lt;number&gt; timberwolves &lt;number&gt; jazz &lt;number&gt; &lt;number&gt;/&lt;number&gt; trailblazers &lt;number&gt; &lt;number&gt;/&lt;number&gt; risk &lt;number&gt;</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1600,24 +1301,17 @@
           <t>7wk8db</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>7wk8db</t>
-        </is>
+      <c r="B44" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1627,24 +1321,17 @@
           <t>7wrnee</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>7wrnee</t>
-        </is>
+      <c r="B45" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1654,24 +1341,17 @@
           <t>7wzb7c</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>7wzb7c</t>
-        </is>
+      <c r="B46" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1681,24 +1361,17 @@
           <t>7x7ycs</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>7x7ycs</t>
-        </is>
+      <c r="B47" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1708,24 +1381,17 @@
           <t>7xgjrz</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>7xgjrz</t>
-        </is>
+      <c r="B48" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1735,24 +1401,17 @@
           <t>7xp0ql</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7xp0ql</t>
-        </is>
+      <c r="B49" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1762,24 +1421,17 @@
           <t>7xxbz9</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>7xxbz9</t>
-        </is>
+      <c r="B50" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1789,24 +1441,17 @@
           <t>7y5g4b</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>7y5g4b</t>
-        </is>
+      <c r="B51" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1816,24 +1461,17 @@
           <t>7yd133</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>7yd133</t>
-        </is>
+      <c r="B52" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1843,24 +1481,17 @@
           <t>7yl6en</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>7yl6en</t>
-        </is>
+      <c r="B53" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1870,24 +1501,17 @@
           <t>7yuall</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>7yuall</t>
-        </is>
+      <c r="B54" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1897,24 +1521,17 @@
           <t>7z3zmu</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>7z3zmu</t>
-        </is>
+      <c r="B55" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1924,24 +1541,17 @@
           <t>7zda1d</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>7zda1d</t>
-        </is>
+      <c r="B56" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1951,24 +1561,17 @@
           <t>7zmih3</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>7zmih3</t>
-        </is>
+      <c r="B57" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -1978,24 +1581,17 @@
           <t>7zvanq</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>7zvanq</t>
-        </is>
+      <c r="B58" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2005,24 +1601,17 @@
           <t>8037dy</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>8037dy</t>
-        </is>
+      <c r="B59" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2032,24 +1621,17 @@
           <t>80bfrj</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>80bfrj</t>
-        </is>
+      <c r="B60" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2059,24 +1641,17 @@
           <t>80ks2z</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>80ks2z</t>
-        </is>
+      <c r="B61" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2086,24 +1661,17 @@
           <t>80udru</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>80udru</t>
-        </is>
+      <c r="B62" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2113,24 +1681,17 @@
           <t>93n20p</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>93n20p</t>
-        </is>
+      <c r="B63" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2140,24 +1701,17 @@
           <t>93xe33</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>93xe33</t>
-        </is>
+      <c r="B64" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2167,24 +1721,17 @@
           <t>947qfi</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>947qfi</t>
-        </is>
+      <c r="B65" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2194,24 +1741,17 @@
           <t>94hlfa</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>94hlfa</t>
-        </is>
+      <c r="B66" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2221,24 +1761,17 @@
           <t>94qd8u</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>94qd8u</t>
-        </is>
+      <c r="B67" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2248,24 +1781,17 @@
           <t>94zg0v</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>94zg0v</t>
-        </is>
+      <c r="B68" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2275,24 +1801,17 @@
           <t>959q1l</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>959q1l</t>
-        </is>
+      <c r="B69" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2302,24 +1821,17 @@
           <t>95k40a</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>95k40a</t>
-        </is>
+      <c r="B70" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2329,24 +1841,17 @@
           <t>95uik7</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>95uik7</t>
-        </is>
+      <c r="B71" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2356,24 +1861,17 @@
           <t>9651v3</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>9651v3</t>
-        </is>
+      <c r="B72" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2383,24 +1881,17 @@
           <t>96f0w5</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>96f0w5</t>
-        </is>
+      <c r="B73" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2410,24 +1901,17 @@
           <t>96nq8w</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>96nq8w</t>
-        </is>
+      <c r="B74" t="n">
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2437,24 +1921,17 @@
           <t>96whve</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>96whve</t>
-        </is>
+      <c r="B75" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2464,24 +1941,17 @@
           <t>976is2</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>976is2</t>
-        </is>
+      <c r="B76" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2491,24 +1961,17 @@
           <t>97gi1n</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>97gi1n</t>
-        </is>
+      <c r="B77" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2518,24 +1981,17 @@
           <t>97qeq3</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>97qeq3</t>
-        </is>
+      <c r="B78" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2545,24 +2001,17 @@
           <t>980gbb</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>980gbb</t>
-        </is>
+      <c r="B79" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2572,24 +2021,17 @@
           <t>98a4el</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>98a4el</t>
-        </is>
+      <c r="B80" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2599,24 +2041,17 @@
           <t>98irw3</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>98irw3</t>
-        </is>
+      <c r="B81" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2626,24 +2061,17 @@
           <t>98rr20</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>98rr20</t>
-        </is>
+      <c r="B82" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2653,24 +2081,17 @@
           <t>991b5i</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>991b5i</t>
-        </is>
+      <c r="B83" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2680,24 +2101,17 @@
           <t>99bhen</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>99bhen</t>
-        </is>
+      <c r="B84" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2707,24 +2121,17 @@
           <t>99li7w</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>99li7w</t>
-        </is>
+      <c r="B85" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2734,24 +2141,17 @@
           <t>99vkkj</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>99vkkj</t>
-        </is>
+      <c r="B86" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2761,24 +2161,17 @@
           <t>9a595n</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>9a595n</t>
-        </is>
+      <c r="B87" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2788,24 +2181,17 @@
           <t>9ae1ly</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>9ae1ly</t>
-        </is>
+      <c r="B88" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2815,24 +2201,17 @@
           <t>9an420</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>9an420</t>
-        </is>
+      <c r="B89" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2842,24 +2221,17 @@
           <t>9ax1ri</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>9ax1ri</t>
-        </is>
+      <c r="B90" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2869,24 +2241,17 @@
           <t>9b7bei</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>9b7bei</t>
-        </is>
+      <c r="B91" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2896,24 +2261,17 @@
           <t>9bhpv7</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>9bhpv7</t>
-        </is>
+      <c r="B92" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2923,24 +2281,17 @@
           <t>9brr4b</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>9brr4b</t>
-        </is>
+      <c r="B93" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -2950,24 +2301,17 @@
           <t>7nkbhx</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>7nkbhx</t>
-        </is>
+      <c r="B94" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>[removed]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[removed]</t>
         </is>
       </c>
     </row>
@@ -2977,22 +2321,15 @@
           <t>7nlbkw</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>7nlbkw</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>TMMEN</t>
-        </is>
-      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3000,24 +2337,17 @@
           <t>7nldtn</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>7nldtn</t>
-        </is>
+      <c r="B96" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TMMEN</t>
+          <t>Houston Rockets star guard James Harden will be sidelined at least two weeks due to a Grade 2 hamstring strain, the team announced Monday night.[Source](http://www.espn.com/nba/story/_/id/21936683/james-harden-houston-rockets-least-2-weeks-hamstring-strain)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>houston rockets star guard james harden will be sidelined at least two weeks due to a grade &lt;number&gt; hamstring strain, the team announced monday night. [source](&lt;url&gt;)</t>
         </is>
       </c>
     </row>
@@ -3027,22 +2357,15 @@
           <t>7npy9l</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>7npy9l</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>TMMEN</t>
-        </is>
-      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3050,22 +2373,15 @@
           <t>7npyho</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>7npyho</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>TMMEN</t>
-        </is>
-      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3073,24 +2389,17 @@
           <t>7nt9xp</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>7nt9xp</t>
-        </is>
+      <c r="B99" t="n">
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3100,10 +2409,8 @@
           <t>7nt9xp</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ds4gk4d</t>
-        </is>
+      <c r="B100" t="n">
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3112,12 +2419,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7nt9xp</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[deleted]</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3127,10 +2429,8 @@
           <t>7nz0m1</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>7nz0m1</t>
-        </is>
+      <c r="B101" t="n">
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3140,11 +2440,6 @@
       <c r="D101" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[deleted]</t>
         </is>
       </c>
     </row>
@@ -3154,22 +2449,15 @@
           <t>7nz3bj</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>7nz3bj</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3177,22 +2465,15 @@
           <t>7o01fs</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>7o01fs</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3200,22 +2481,15 @@
           <t>7o041z</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>7o041z</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3223,22 +2497,15 @@
           <t>7o13rv</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>7o13rv</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3246,24 +2513,17 @@
           <t>7o1l5h</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>7o1l5h</t>
-        </is>
+      <c r="B106" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3273,22 +2533,15 @@
           <t>7o238d</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>7o238d</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3296,22 +2549,15 @@
           <t>7o25bb</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>7o25bb</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3319,22 +2565,15 @@
           <t>7o26ot</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>7o26ot</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3342,22 +2581,15 @@
           <t>7o285x</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>7o285x</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3365,22 +2597,15 @@
           <t>7o29rp</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>7o29rp</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3388,22 +2613,15 @@
           <t>7o2bdf</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>7o2bdf</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3411,22 +2629,15 @@
           <t>7o2gkf</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>7o2gkf</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3434,22 +2645,15 @@
           <t>7o2i92</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>7o2i92</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3457,22 +2661,15 @@
           <t>7o2juk</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>7o2juk</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3480,22 +2677,15 @@
           <t>7o2lgk</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>7o2lgk</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>nbanewsupdate</t>
-        </is>
-      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3503,24 +2693,17 @@
           <t>7o9tmt</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>7o9tmt</t>
-        </is>
+      <c r="B117" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3530,24 +2713,17 @@
           <t>7oi14x</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>7oi14x</t>
-        </is>
+      <c r="B118" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3557,24 +2733,17 @@
           <t>7opgib</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>7opgib</t>
-        </is>
+      <c r="B119" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3584,24 +2753,17 @@
           <t>7opgib</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>dsbdq69</t>
-        </is>
+      <c r="B120" t="n">
+        <v>2</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TMMEN</t>
+          <t>Atlanta Hawks v **LA Lakers** ML Funnily, they are both playing to see who has the worst record in the league.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>7opgib</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>atlanta hawks v **la lakers** ml funnily, they are both playing to see who has the worst record in the league.</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3611,24 +2773,17 @@
           <t>7ox47v</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>7ox47v</t>
-        </is>
+      <c r="B121" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3638,24 +2793,17 @@
           <t>7p5paz</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>7p5paz</t>
-        </is>
+      <c r="B122" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3665,24 +2813,17 @@
           <t>7pe6r0</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>7pe6r0</t>
-        </is>
+      <c r="B123" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3692,24 +2833,17 @@
           <t>7pmnhu</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>7pmnhu</t>
-        </is>
+      <c r="B124" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3719,24 +2853,17 @@
           <t>7pv74t</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>7pv74t</t>
-        </is>
+      <c r="B125" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3746,24 +2873,17 @@
           <t>7q3atk</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>7q3atk</t>
-        </is>
+      <c r="B126" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3773,24 +2893,17 @@
           <t>7qap8n</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>7qap8n</t>
-        </is>
+      <c r="B127" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3800,24 +2913,17 @@
           <t>7qiba5</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>7qiba5</t>
-        </is>
+      <c r="B128" t="n">
+        <v>1</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3827,24 +2933,17 @@
           <t>7qqv6a</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>7qqv6a</t>
-        </is>
+      <c r="B129" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3854,24 +2953,17 @@
           <t>7qzjrz</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>7qzjrz</t>
-        </is>
+      <c r="B130" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3881,24 +2973,17 @@
           <t>7r88vh</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>7r88vh</t>
-        </is>
+      <c r="B131" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3908,24 +2993,17 @@
           <t>7rgw07</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>7rgw07</t>
-        </is>
+      <c r="B132" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3935,24 +3013,17 @@
           <t>7rp61k</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>7rp61k</t>
-        </is>
+      <c r="B133" t="n">
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3962,24 +3033,17 @@
           <t>7rwk83</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>7rwk83</t>
-        </is>
+      <c r="B134" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -3989,24 +3053,17 @@
           <t>7s4cjk</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>7s4cjk</t>
-        </is>
+      <c r="B135" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4016,24 +3073,17 @@
           <t>7scydj</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>7scydj</t>
-        </is>
+      <c r="B136" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4043,24 +3093,17 @@
           <t>7slmm1</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>7slmm1</t>
-        </is>
+      <c r="B137" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4070,24 +3113,17 @@
           <t>7sungw</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>7sungw</t>
-        </is>
+      <c r="B138" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4097,24 +3133,17 @@
           <t>7t36fw</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>7t36fw</t>
-        </is>
+      <c r="B139" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4124,24 +3153,17 @@
           <t>7tbh07</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>7tbh07</t>
-        </is>
+      <c r="B140" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4151,24 +3173,17 @@
           <t>7tj2ks</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>7tj2ks</t>
-        </is>
+      <c r="B141" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4178,24 +3193,17 @@
           <t>7tqvba</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>7tqvba</t>
-        </is>
+      <c r="B142" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4205,24 +3213,17 @@
           <t>7tzjlo</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>7tzjlo</t>
-        </is>
+      <c r="B143" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4232,24 +3233,17 @@
           <t>7u8et6</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>7u8et6</t>
-        </is>
+      <c r="B144" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4259,24 +3253,17 @@
           <t>88pdmt</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>88pdmt</t>
-        </is>
+      <c r="B145" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4286,24 +3273,17 @@
           <t>88xr04</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>88xr04</t>
-        </is>
+      <c r="B146" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4313,24 +3293,17 @@
           <t>89bdn1</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>89bdn1</t>
-        </is>
+      <c r="B147" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4340,24 +3313,17 @@
           <t>89nknf</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>89nknf</t>
-        </is>
+      <c r="B148" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4367,24 +3333,17 @@
           <t>89xwvx</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>89xwvx</t>
-        </is>
+      <c r="B149" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4394,24 +3353,17 @@
           <t>8a7s36</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>8a7s36</t>
-        </is>
+      <c r="B150" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4421,24 +3373,17 @@
           <t>8agpts</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>8agpts</t>
-        </is>
+      <c r="B151" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4448,24 +3393,17 @@
           <t>8aonoc</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>8aonoc</t>
-        </is>
+      <c r="B152" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4475,24 +3413,17 @@
           <t>8awtxz</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>8awtxz</t>
-        </is>
+      <c r="B153" t="n">
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4502,24 +3433,17 @@
           <t>8b5zlw</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>8b5zlw</t>
-        </is>
+      <c r="B154" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4529,24 +3453,17 @@
           <t>8bfewj</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>8bfewj</t>
-        </is>
+      <c r="B155" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4556,24 +3473,17 @@
           <t>8boj3j</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>8boj3j</t>
-        </is>
+      <c r="B156" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4583,24 +3493,17 @@
           <t>8bxj7n</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>8bxj7n</t>
-        </is>
+      <c r="B157" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4610,24 +3513,17 @@
           <t>8c6883</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>8c6883</t>
-        </is>
+      <c r="B158" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4637,24 +3533,17 @@
           <t>8cdut0</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>8cdut0</t>
-        </is>
+      <c r="B159" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4664,24 +3553,17 @@
           <t>8clyax</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>8clyax</t>
-        </is>
+      <c r="B160" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4691,24 +3573,17 @@
           <t>8cuwtt</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>8cuwtt</t>
-        </is>
+      <c r="B161" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4718,24 +3593,17 @@
           <t>8d3zqh</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>8d3zqh</t>
-        </is>
+      <c r="B162" t="n">
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4745,24 +3613,17 @@
           <t>8dd1k8</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>8dd1k8</t>
-        </is>
+      <c r="B163" t="n">
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4772,24 +3633,17 @@
           <t>8dlz2f</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>8dlz2f</t>
-        </is>
+      <c r="B164" t="n">
+        <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4799,24 +3653,17 @@
           <t>8dug7p</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>8dug7p</t>
-        </is>
+      <c r="B165" t="n">
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4826,24 +3673,17 @@
           <t>8e1yf2</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>8e1yf2</t>
-        </is>
+      <c r="B166" t="n">
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4853,24 +3693,17 @@
           <t>8e9uhp</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>8e9uhp</t>
-        </is>
+      <c r="B167" t="n">
+        <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4880,24 +3713,17 @@
           <t>8eisl0</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>8eisl0</t>
-        </is>
+      <c r="B168" t="n">
+        <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4907,24 +3733,17 @@
           <t>8erwg2</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>8erwg2</t>
-        </is>
+      <c r="B169" t="n">
+        <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4934,24 +3753,17 @@
           <t>8f0zyc</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>8f0zyc</t>
-        </is>
+      <c r="B170" t="n">
+        <v>1</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4961,24 +3773,17 @@
           <t>8f9zxb</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>8f9zxb</t>
-        </is>
+      <c r="B171" t="n">
+        <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -4988,24 +3793,17 @@
           <t>8fikfc</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>8fikfc</t>
-        </is>
+      <c r="B172" t="n">
+        <v>1</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5015,24 +3813,17 @@
           <t>8fq2bx</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>8fq2bx</t>
-        </is>
+      <c r="B173" t="n">
+        <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5042,24 +3833,17 @@
           <t>8fxw6a</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>8fxw6a</t>
-        </is>
+      <c r="B174" t="n">
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5069,24 +3853,17 @@
           <t>9keg17</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>9keg17</t>
-        </is>
+      <c r="B175" t="n">
+        <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5096,24 +3873,17 @@
           <t>9kos33</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>9kos33</t>
-        </is>
+      <c r="B176" t="n">
+        <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5123,24 +3893,17 @@
           <t>9kz6yk</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>9kz6yk</t>
-        </is>
+      <c r="B177" t="n">
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5150,24 +3913,17 @@
           <t>9l9xcb</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>9l9xcb</t>
-        </is>
+      <c r="B178" t="n">
+        <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5177,24 +3933,17 @@
           <t>9lkctf</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>9lkctf</t>
-        </is>
+      <c r="B179" t="n">
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5204,24 +3953,17 @@
           <t>9luc87</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>9luc87</t>
-        </is>
+      <c r="B180" t="n">
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5231,24 +3973,17 @@
           <t>9m3jvy</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>9m3jvy</t>
-        </is>
+      <c r="B181" t="n">
+        <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5258,24 +3993,17 @@
           <t>9mczha</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>9mczha</t>
-        </is>
+      <c r="B182" t="n">
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5285,24 +4013,17 @@
           <t>9mnadn</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>9mnadn</t>
-        </is>
+      <c r="B183" t="n">
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5312,24 +4033,17 @@
           <t>9mxj3p</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>9mxj3p</t>
-        </is>
+      <c r="B184" t="n">
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5339,24 +4053,17 @@
           <t>9n7ywn</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>9n7ywn</t>
-        </is>
+      <c r="B185" t="n">
+        <v>1</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5366,24 +4073,17 @@
           <t>9nidtg</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>9nidtg</t>
-        </is>
+      <c r="B186" t="n">
+        <v>1</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5393,24 +4093,17 @@
           <t>9ns70l</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>9ns70l</t>
-        </is>
+      <c r="B187" t="n">
+        <v>1</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5420,24 +4113,17 @@
           <t>9o15t6</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>9o15t6</t>
-        </is>
+      <c r="B188" t="n">
+        <v>1</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5447,24 +4133,17 @@
           <t>9oaqda</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>9oaqda</t>
-        </is>
+      <c r="B189" t="n">
+        <v>1</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5474,24 +4153,17 @@
           <t>9oljl9</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>9oljl9</t>
-        </is>
+      <c r="B190" t="n">
+        <v>1</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5501,24 +4173,17 @@
           <t>9ownna</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>9ownna</t>
-        </is>
+      <c r="B191" t="n">
+        <v>1</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5528,24 +4193,17 @@
           <t>9p78ee</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>9p78ee</t>
-        </is>
+      <c r="B192" t="n">
+        <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5555,24 +4213,17 @@
           <t>9phrkh</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>9phrkh</t>
-        </is>
+      <c r="B193" t="n">
+        <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5582,24 +4233,17 @@
           <t>9psctb</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>9psctb</t>
-        </is>
+      <c r="B194" t="n">
+        <v>1</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5609,24 +4253,17 @@
           <t>9q1wlu</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>9q1wlu</t>
-        </is>
+      <c r="B195" t="n">
+        <v>1</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5636,24 +4273,17 @@
           <t>9qbq1x</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>9qbq1x</t>
-        </is>
+      <c r="B196" t="n">
+        <v>1</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5663,24 +4293,17 @@
           <t>9qmuky</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>9qmuky</t>
-        </is>
+      <c r="B197" t="n">
+        <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5690,24 +4313,17 @@
           <t>9r8ans</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>9r8ans</t>
-        </is>
+      <c r="B198" t="n">
+        <v>1</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5717,24 +4333,17 @@
           <t>9rit0f</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>9rit0f</t>
-        </is>
+      <c r="B199" t="n">
+        <v>1</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5744,24 +4353,17 @@
           <t>9rso78</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>9rso78</t>
-        </is>
+      <c r="B200" t="n">
+        <v>1</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5771,24 +4373,17 @@
           <t>9rso78</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>e8k7grb</t>
-        </is>
+      <c r="B201" t="n">
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>capdap</t>
+          <t xml:space="preserve">great NBA picks at [www.bigsportsbookpicks.blogspot.com](https://www.bigsportsbookpicks.blogspot.com) I like Portland at Miami POR +102 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>9rso78</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>great nba picks at [&lt;url&gt;](&lt;url&gt;) i like portland at miami por &lt;number&gt;</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5798,24 +4393,17 @@
           <t>9s1n0r</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>9s1n0r</t>
-        </is>
+      <c r="B202" t="n">
+        <v>1</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5825,24 +4413,17 @@
           <t>9s1n0r</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>e8mhq43</t>
-        </is>
+      <c r="B203" t="n">
+        <v>2</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>capdap</t>
+          <t xml:space="preserve">I ike Jazz -4 and Jazz Money Line. Wizards could definitely pull off the "upset".great daily nba bets [www.bigsportsbookpicks.blogspot.com](https://www.bigsportsbookpicks.blogspot.com) </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>9s1n0r</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>i ike jazz &lt;number&gt; and jazz money line. wizards could definitely pull off the "upset". great daily nba bets [&lt;url&gt;](&lt;url&gt;)</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5852,24 +4433,17 @@
           <t>9sb5xg</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>9sb5xg</t>
-        </is>
+      <c r="B204" t="n">
+        <v>1</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5879,24 +4453,17 @@
           <t>9sluv2</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>9sluv2</t>
-        </is>
+      <c r="B205" t="n">
+        <v>1</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5906,24 +4473,17 @@
           <t>9swqvy</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>9swqvy</t>
-        </is>
+      <c r="B206" t="n">
+        <v>1</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5933,24 +4493,17 @@
           <t>813p36</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>813p36</t>
-        </is>
+      <c r="B207" t="n">
+        <v>1</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5960,24 +4513,17 @@
           <t>81cqd7</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>81cqd7</t>
-        </is>
+      <c r="B208" t="n">
+        <v>1</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -5987,24 +4533,17 @@
           <t>81cqd7</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>dv3jgg2</t>
-        </is>
+      <c r="B209" t="n">
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>supertoastergod</t>
+          <t>Pistons: 94Magic: 86</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>81cqd7</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>pistons: &lt;number&gt; magic: &lt;number&gt;</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6014,24 +4553,17 @@
           <t>81ogi0</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>81ogi0</t>
-        </is>
+      <c r="B210" t="n">
+        <v>1</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6041,24 +4573,17 @@
           <t>81ogi0</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>dv43foa</t>
-        </is>
+      <c r="B211" t="n">
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ronin_d</t>
+          <t>This sub is dead</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>81ogi0</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>this sub is dead</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6068,24 +4593,17 @@
           <t>81wh1p</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>81wh1p</t>
-        </is>
+      <c r="B212" t="n">
+        <v>1</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6095,24 +4613,17 @@
           <t>824fai</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>824fai</t>
-        </is>
+      <c r="B213" t="n">
+        <v>1</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6122,24 +4633,17 @@
           <t>82dfth</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>82dfth</t>
-        </is>
+      <c r="B214" t="n">
+        <v>1</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6149,24 +4653,17 @@
           <t>82mohb</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>82mohb</t>
-        </is>
+      <c r="B215" t="n">
+        <v>1</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6176,24 +4673,17 @@
           <t>82vwis</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>82vwis</t>
-        </is>
+      <c r="B216" t="n">
+        <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6203,24 +4693,17 @@
           <t>8353qi</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>8353qi</t>
-        </is>
+      <c r="B217" t="n">
+        <v>1</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6230,24 +4713,17 @@
           <t>83dwsq</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>83dwsq</t>
-        </is>
+      <c r="B218" t="n">
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6257,24 +4733,17 @@
           <t>83li2d</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>83li2d</t>
-        </is>
+      <c r="B219" t="n">
+        <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6284,24 +4753,17 @@
           <t>83tcbn</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>83tcbn</t>
-        </is>
+      <c r="B220" t="n">
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6311,24 +4773,17 @@
           <t>842h44</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>842h44</t>
-        </is>
+      <c r="B221" t="n">
+        <v>1</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6338,24 +4793,17 @@
           <t>84bpdb</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>84bpdb</t>
-        </is>
+      <c r="B222" t="n">
+        <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6365,24 +4813,17 @@
           <t>84ktmx</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>84ktmx</t>
-        </is>
+      <c r="B223" t="n">
+        <v>1</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6392,24 +4833,17 @@
           <t>84tu5x</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>84tu5x</t>
-        </is>
+      <c r="B224" t="n">
+        <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6419,24 +4853,17 @@
           <t>852fof</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>852fof</t>
-        </is>
+      <c r="B225" t="n">
+        <v>1</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6446,24 +4873,17 @@
           <t>85a0rq</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>85a0rq</t>
-        </is>
+      <c r="B226" t="n">
+        <v>1</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6473,24 +4893,17 @@
           <t>85huij</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>85huij</t>
-        </is>
+      <c r="B227" t="n">
+        <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6500,24 +4913,17 @@
           <t>85r145</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>85r145</t>
-        </is>
+      <c r="B228" t="n">
+        <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6527,24 +4933,17 @@
           <t>860eqw</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>860eqw</t>
-        </is>
+      <c r="B229" t="n">
+        <v>1</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6554,24 +4953,17 @@
           <t>869uy9</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>869uy9</t>
-        </is>
+      <c r="B230" t="n">
+        <v>1</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6581,24 +4973,17 @@
           <t>86j02b</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>86j02b</t>
-        </is>
+      <c r="B231" t="n">
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6608,24 +4993,17 @@
           <t>86rqvn</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>86rqvn</t>
-        </is>
+      <c r="B232" t="n">
+        <v>1</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6635,24 +5013,17 @@
           <t>86zgts</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>86zgts</t>
-        </is>
+      <c r="B233" t="n">
+        <v>1</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6662,24 +5033,17 @@
           <t>877geg</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>877geg</t>
-        </is>
+      <c r="B234" t="n">
+        <v>1</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6689,24 +5053,17 @@
           <t>87goii</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>87goii</t>
-        </is>
+      <c r="B235" t="n">
+        <v>1</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6716,24 +5073,17 @@
           <t>87goii</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>dweb6zl</t>
-        </is>
+      <c r="B236" t="n">
+        <v>2</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Trevor_Roll</t>
+          <t xml:space="preserve">I am from Scotland, I enjoy watching basketball but only if I'm betting on it. I have no clue of where anybody is in the league or how good/bad they are but the other day I bet on the Celtics to beat the trail blazers and got crazy odds and they won. I'm guessing no one excepted that? </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>87goii</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>i am from scotland, i enjoy watching basketball but only if i'm betting on it. i have no clue of where anybody is in the league or how good/bad they are but the other day i bet on the celtics to beat the trail blazers and got crazy odds and they won. i'm guessing no one excepted that?</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6743,24 +5093,17 @@
           <t>87q69w</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>87q69w</t>
-        </is>
+      <c r="B237" t="n">
+        <v>1</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6770,24 +5113,17 @@
           <t>87zjeh</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>87zjeh</t>
-        </is>
+      <c r="B238" t="n">
+        <v>1</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6797,24 +5133,17 @@
           <t>888sfa</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>888sfa</t>
-        </is>
+      <c r="B239" t="n">
+        <v>1</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6824,24 +5153,17 @@
           <t>88has3</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>88has3</t>
-        </is>
+      <c r="B240" t="n">
+        <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6851,24 +5173,17 @@
           <t>8g6snv</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>8g6snv</t>
-        </is>
+      <c r="B241" t="n">
+        <v>1</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6878,24 +5193,17 @@
           <t>8gfr2m</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>8gfr2m</t>
-        </is>
+      <c r="B242" t="n">
+        <v>1</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6905,24 +5213,17 @@
           <t>8gor3j</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>8gor3j</t>
-        </is>
+      <c r="B243" t="n">
+        <v>1</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6932,24 +5233,17 @@
           <t>8gxm3u</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>8gxm3u</t>
-        </is>
+      <c r="B244" t="n">
+        <v>1</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6959,24 +5253,17 @@
           <t>8h66ri</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>8h66ri</t>
-        </is>
+      <c r="B245" t="n">
+        <v>1</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -6986,24 +5273,17 @@
           <t>8hduju</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>8hduju</t>
-        </is>
+      <c r="B246" t="n">
+        <v>1</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7013,24 +5293,17 @@
           <t>8hlvr8</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>8hlvr8</t>
-        </is>
+      <c r="B247" t="n">
+        <v>1</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7040,24 +5313,17 @@
           <t>8hv0je</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>8hv0je</t>
-        </is>
+      <c r="B248" t="n">
+        <v>1</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7067,24 +5333,17 @@
           <t>8i49ou</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>8i49ou</t>
-        </is>
+      <c r="B249" t="n">
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7094,24 +5353,17 @@
           <t>8id8u3</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>8id8u3</t>
-        </is>
+      <c r="B250" t="n">
+        <v>1</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7121,24 +5373,17 @@
           <t>8im3au</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>8im3au</t>
-        </is>
+      <c r="B251" t="n">
+        <v>1</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7148,24 +5393,17 @@
           <t>8iuosc</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>8iuosc</t>
-        </is>
+      <c r="B252" t="n">
+        <v>1</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7175,24 +5413,17 @@
           <t>8j2gb3</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>8j2gb3</t>
-        </is>
+      <c r="B253" t="n">
+        <v>1</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7202,24 +5433,17 @@
           <t>8jalmw</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>8jalmw</t>
-        </is>
+      <c r="B254" t="n">
+        <v>1</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7229,24 +5453,17 @@
           <t>8jjw29</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>8jjw29</t>
-        </is>
+      <c r="B255" t="n">
+        <v>1</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7256,24 +5473,17 @@
           <t>8jt7ro</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>8jt7ro</t>
-        </is>
+      <c r="B256" t="n">
+        <v>1</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7283,24 +5493,17 @@
           <t>8k2keo</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>8k2keo</t>
-        </is>
+      <c r="B257" t="n">
+        <v>1</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7310,24 +5513,17 @@
           <t>8kbiw9</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>8kbiw9</t>
-        </is>
+      <c r="B258" t="n">
+        <v>1</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7337,24 +5533,17 @@
           <t>8kjxh2</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>8kjxh2</t>
-        </is>
+      <c r="B259" t="n">
+        <v>1</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7364,24 +5553,17 @@
           <t>8krcqh</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>8krcqh</t>
-        </is>
+      <c r="B260" t="n">
+        <v>1</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7391,24 +5573,17 @@
           <t>8kz77m</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>8kz77m</t>
-        </is>
+      <c r="B261" t="n">
+        <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7418,24 +5593,17 @@
           <t>8l8cdb</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>8l8cdb</t>
-        </is>
+      <c r="B262" t="n">
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7445,24 +5613,17 @@
           <t>8lhnmt</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>8lhnmt</t>
-        </is>
+      <c r="B263" t="n">
+        <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7472,24 +5633,17 @@
           <t>8lqyxy</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>8lqyxy</t>
-        </is>
+      <c r="B264" t="n">
+        <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7499,24 +5653,17 @@
           <t>8m02jl</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>8m02jl</t>
-        </is>
+      <c r="B265" t="n">
+        <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7526,24 +5673,17 @@
           <t>8m8qg1</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>8m8qg1</t>
-        </is>
+      <c r="B266" t="n">
+        <v>1</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7553,24 +5693,17 @@
           <t>8mggfh</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>8mggfh</t>
-        </is>
+      <c r="B267" t="n">
+        <v>1</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7580,24 +5713,17 @@
           <t>8mogy4</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>8mogy4</t>
-        </is>
+      <c r="B268" t="n">
+        <v>1</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7607,24 +5733,17 @@
           <t>8mxdya</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>8mxdya</t>
-        </is>
+      <c r="B269" t="n">
+        <v>1</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7634,24 +5753,17 @@
           <t>8n6tub</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>8n6tub</t>
-        </is>
+      <c r="B270" t="n">
+        <v>1</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7661,24 +5773,17 @@
           <t>8ngnrg</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>8ngnrg</t>
-        </is>
+      <c r="B271" t="n">
+        <v>1</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7688,24 +5793,17 @@
           <t>9c1fxg</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>9c1fxg</t>
-        </is>
+      <c r="B272" t="n">
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7715,24 +5813,17 @@
           <t>9cajzd</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>9cajzd</t>
-        </is>
+      <c r="B273" t="n">
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7742,24 +5833,17 @@
           <t>9cjo4d</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>9cjo4d</t>
-        </is>
+      <c r="B274" t="n">
+        <v>1</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7769,24 +5853,17 @@
           <t>9ctmhu</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>9ctmhu</t>
-        </is>
+      <c r="B275" t="n">
+        <v>1</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7796,24 +5873,17 @@
           <t>9d4bx8</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>9d4bx8</t>
-        </is>
+      <c r="B276" t="n">
+        <v>1</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7823,24 +5893,17 @@
           <t>9dg8pi</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>9dg8pi</t>
-        </is>
+      <c r="B277" t="n">
+        <v>1</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7850,24 +5913,17 @@
           <t>9ds5jy</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>9ds5jy</t>
-        </is>
+      <c r="B278" t="n">
+        <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7877,24 +5933,17 @@
           <t>9e2phc</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>9e2phc</t>
-        </is>
+      <c r="B279" t="n">
+        <v>1</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7904,24 +5953,17 @@
           <t>9ebgl4</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>9ebgl4</t>
-        </is>
+      <c r="B280" t="n">
+        <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7931,24 +5973,17 @@
           <t>9el0cg</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>9el0cg</t>
-        </is>
+      <c r="B281" t="n">
+        <v>1</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7958,24 +5993,17 @@
           <t>9evljf</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>9evljf</t>
-        </is>
+      <c r="B282" t="n">
+        <v>1</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -7985,24 +6013,17 @@
           <t>9f5syc</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>9f5syc</t>
-        </is>
+      <c r="B283" t="n">
+        <v>1</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8012,24 +6033,17 @@
           <t>9fg47b</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>9fg47b</t>
-        </is>
+      <c r="B284" t="n">
+        <v>1</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8039,24 +6053,17 @@
           <t>9fq63l</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>9fq63l</t>
-        </is>
+      <c r="B285" t="n">
+        <v>1</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8066,24 +6073,17 @@
           <t>9fzuwc</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>9fzuwc</t>
-        </is>
+      <c r="B286" t="n">
+        <v>1</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8093,24 +6093,17 @@
           <t>9g8zuh</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>9g8zuh</t>
-        </is>
+      <c r="B287" t="n">
+        <v>1</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8120,24 +6113,17 @@
           <t>9gifgp</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>9gifgp</t>
-        </is>
+      <c r="B288" t="n">
+        <v>1</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8147,24 +6133,17 @@
           <t>9gsvnk</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>9gsvnk</t>
-        </is>
+      <c r="B289" t="n">
+        <v>1</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8174,24 +6153,17 @@
           <t>9h3983</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>9h3983</t>
-        </is>
+      <c r="B290" t="n">
+        <v>1</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8201,24 +6173,17 @@
           <t>9hdfkk</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>9hdfkk</t>
-        </is>
+      <c r="B291" t="n">
+        <v>1</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8228,24 +6193,17 @@
           <t>9hncgt</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>9hncgt</t>
-        </is>
+      <c r="B292" t="n">
+        <v>1</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8255,24 +6213,17 @@
           <t>9hy32v</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>9hy32v</t>
-        </is>
+      <c r="B293" t="n">
+        <v>1</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8282,24 +6233,17 @@
           <t>9i6uzx</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>9i6uzx</t>
-        </is>
+      <c r="B294" t="n">
+        <v>1</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8309,24 +6253,17 @@
           <t>9ig4j1</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>9ig4j1</t>
-        </is>
+      <c r="B295" t="n">
+        <v>1</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8336,24 +6273,17 @@
           <t>9iq9qe</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>9iq9qe</t>
-        </is>
+      <c r="B296" t="n">
+        <v>1</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8363,24 +6293,17 @@
           <t>9j0jzg</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>9j0jzg</t>
-        </is>
+      <c r="B297" t="n">
+        <v>1</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8390,24 +6313,17 @@
           <t>9jayf6</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>9jayf6</t>
-        </is>
+      <c r="B298" t="n">
+        <v>1</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8417,22 +6333,15 @@
           <t>9jixby</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>9jixby</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>NESE12</t>
-        </is>
-      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8440,24 +6349,17 @@
           <t>9jl3ec</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>9jl3ec</t>
-        </is>
+      <c r="B300" t="n">
+        <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8467,24 +6369,17 @@
           <t>9juvi2</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>9juvi2</t>
-        </is>
+      <c r="B301" t="n">
+        <v>1</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8494,24 +6389,17 @@
           <t>9k4n49</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>9k4n49</t>
-        </is>
+      <c r="B302" t="n">
+        <v>1</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8521,24 +6409,17 @@
           <t>8v8isi</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>8v8isi</t>
-        </is>
+      <c r="B303" t="n">
+        <v>1</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8548,24 +6429,17 @@
           <t>8vgy99</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>8vgy99</t>
-        </is>
+      <c r="B304" t="n">
+        <v>1</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8575,24 +6449,17 @@
           <t>8vqgsd</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>8vqgsd</t>
-        </is>
+      <c r="B305" t="n">
+        <v>1</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8602,24 +6469,17 @@
           <t>8vzyr5</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>8vzyr5</t>
-        </is>
+      <c r="B306" t="n">
+        <v>1</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8629,24 +6489,17 @@
           <t>8w8r34</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>8w8r34</t>
-        </is>
+      <c r="B307" t="n">
+        <v>1</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8656,24 +6509,17 @@
           <t>8wibr3</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>8wibr3</t>
-        </is>
+      <c r="B308" t="n">
+        <v>1</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8683,24 +6529,17 @@
           <t>8wroo6</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>8wroo6</t>
-        </is>
+      <c r="B309" t="n">
+        <v>1</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8710,24 +6549,17 @@
           <t>8x02m0</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>8x02m0</t>
-        </is>
+      <c r="B310" t="n">
+        <v>1</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8737,24 +6569,17 @@
           <t>8x02yb</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>8x02yb</t>
-        </is>
+      <c r="B311" t="n">
+        <v>1</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8764,24 +6589,17 @@
           <t>8x9jyz</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>8x9jyz</t>
-        </is>
+      <c r="B312" t="n">
+        <v>1</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8791,24 +6609,17 @@
           <t>8xmueq</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>8xmueq</t>
-        </is>
+      <c r="B313" t="n">
+        <v>1</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8818,24 +6629,17 @@
           <t>8xxqkw</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>8xxqkw</t>
-        </is>
+      <c r="B314" t="n">
+        <v>1</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8845,24 +6649,17 @@
           <t>8xxqt2</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>8xxqt2</t>
-        </is>
+      <c r="B315" t="n">
+        <v>1</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8872,24 +6669,17 @@
           <t>8y7tt9</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>8y7tt9</t>
-        </is>
+      <c r="B316" t="n">
+        <v>1</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8899,24 +6689,17 @@
           <t>8yi4hp</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>8yi4hp</t>
-        </is>
+      <c r="B317" t="n">
+        <v>1</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8926,24 +6709,17 @@
           <t>8yrrnp</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>8yrrnp</t>
-        </is>
+      <c r="B318" t="n">
+        <v>1</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8953,24 +6729,17 @@
           <t>8z08an</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>8z08an</t>
-        </is>
+      <c r="B319" t="n">
+        <v>1</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -8980,24 +6749,17 @@
           <t>8z93no</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>8z93no</t>
-        </is>
+      <c r="B320" t="n">
+        <v>1</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9007,24 +6769,17 @@
           <t>8zja2s</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>8zja2s</t>
-        </is>
+      <c r="B321" t="n">
+        <v>1</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9034,24 +6789,17 @@
           <t>8ztj20</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>8ztj20</t>
-        </is>
+      <c r="B322" t="n">
+        <v>1</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9061,24 +6809,17 @@
           <t>903xmo</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>903xmo</t>
-        </is>
+      <c r="B323" t="n">
+        <v>1</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9088,24 +6829,17 @@
           <t>90e55o</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>90e55o</t>
-        </is>
+      <c r="B324" t="n">
+        <v>1</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9115,24 +6849,17 @@
           <t>90nt6k</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>90nt6k</t>
-        </is>
+      <c r="B325" t="n">
+        <v>1</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9142,24 +6869,17 @@
           <t>90wbnf</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>90wbnf</t>
-        </is>
+      <c r="B326" t="n">
+        <v>1</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9169,24 +6889,17 @@
           <t>9157ry</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>9157ry</t>
-        </is>
+      <c r="B327" t="n">
+        <v>1</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9196,24 +6909,17 @@
           <t>91px36</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>91px36</t>
-        </is>
+      <c r="B328" t="n">
+        <v>1</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9223,24 +6929,17 @@
           <t>920cyk</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>920cyk</t>
-        </is>
+      <c r="B329" t="n">
+        <v>1</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9250,24 +6949,17 @@
           <t>920cyk</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>e32yzmm</t>
-        </is>
+      <c r="B330" t="n">
+        <v>2</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>HankBuxley</t>
+          <t>Testing testing.  Anybody alive in here?2018-2019 is going to be a great year</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>920cyk</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>testing testing. anybody alive in here? &lt;number&gt;-&lt;number&gt; is going to be a great year</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9277,24 +6969,17 @@
           <t>92anfs</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>92anfs</t>
-        </is>
+      <c r="B331" t="n">
+        <v>1</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9304,24 +6989,17 @@
           <t>92kkbf</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>92kkbf</t>
-        </is>
+      <c r="B332" t="n">
+        <v>1</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9331,24 +7009,17 @@
           <t>92tbfm</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>92tbfm</t>
-        </is>
+      <c r="B333" t="n">
+        <v>1</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9358,24 +7029,17 @@
           <t>93282w</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>93282w</t>
-        </is>
+      <c r="B334" t="n">
+        <v>1</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
@@ -9385,24 +7049,17 @@
           <t>93ck3d</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>93ck3d</t>
-        </is>
+      <c r="B335" t="n">
+        <v>1</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>AutoModerator</t>
+          <t>Welcome to the Daily General Discussion thread of /r/NBAOdds. Post your NBA predictions, bets, and news here!</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>N/A</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>welcome to the daily general discussion thread of /r/nbaodds. post your nba predictions, bets, and news here!</t>
         </is>
       </c>
     </row>
